--- a/nopcommerce.xlsx
+++ b/nopcommerce.xlsx
@@ -82,25 +82,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -410,8 +407,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="26.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="18.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="26.719285714285714" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -431,10 +428,10 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
